--- a/src/test/resources/testData/PhoenixTestData.xlsx
+++ b/src/test/resources/testData/PhoenixTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\PhoenixTestAutomationFramework\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\PhoenixTestAutomationFramework\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE01A49-6599-4BDC-AB63-513DEF4BCD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305E4BBF-B33E-4E9F-AC4D-0ABE70BE0B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="437" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="437" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
   <si>
     <t>username</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>56391456191268</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -534,9 +543,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -544,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -560,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -577,40 +586,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A4E11C-EBF9-48B3-8B11-D6F096972F55}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -693,18 +703,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -772,18 +782,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
@@ -851,18 +861,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>46</v>
@@ -930,18 +940,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>47</v>
@@ -1009,18 +1019,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
@@ -1088,18 +1098,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>49</v>
@@ -1180,7 +1190,7 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
